--- a/user-data/kenya-births-attendance/kenya-births-attendance.xlsx
+++ b/user-data/kenya-births-attendance/kenya-births-attendance.xlsx
@@ -322,7 +322,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 33</t>
+    <t xml:space="preserve">Source: 34</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-births-attendance/kenya-births-attendance.xlsx
+++ b/user-data/kenya-births-attendance/kenya-births-attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">district_id</t>
   </si>
@@ -313,6 +313,9 @@
     <t xml:space="preserve">2014</t>
   </si>
   <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name: kenya-births-attendance</t>
   </si>
   <si>
@@ -322,7 +325,7 @@
     <t xml:space="preserve">Units of measure: percent</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 34</t>
+    <t xml:space="preserve">Source: 36</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -680,77 +683,77 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -797,646 +800,1304 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>52.2</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>41.4</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>58.5</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>81.5</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>39.8</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>60.4</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>63.2</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>48.6</v>
+        <v>81.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>64.4</v>
+        <v>76.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>92.6</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C15" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D15" t="n">
-        <v>52.3</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>92.3</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8</v>
+        <v>65.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>69.2</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C19" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>46.2</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>50.1</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>49.5</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
       <c r="D22" t="n">
-        <v>47.3</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>63.4</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>54.6</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>38.7</v>
+        <v>70.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>25.8</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C27" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>82.8</v>
+        <v>86.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>53.4</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>82.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
       <c r="D30" t="n">
-        <v>85.5</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C31" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>89.1</v>
+        <v>94.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>69.5</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C33" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>46.8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C35" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D35" t="n">
-        <v>76.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>74.1</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C37" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>85.3</v>
+        <v>68.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>88.1</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>70.4</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C41" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>62.5</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>32.2</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="C43" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>41.8</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>22.8</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>59</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>50.3</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>21.7</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D48" t="n">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D49" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D51" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D52" t="n">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D53" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D54" t="n">
+        <v>53.4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D55" t="n">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D56" t="n">
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D57" t="n">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D58" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" t="n">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D60" t="n">
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D61" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D62" t="n">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D63" t="n">
+        <v>69.4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D64" t="n">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D65" t="n">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D66" t="n">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="n">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D68" t="n">
+        <v>76.6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D69" t="n">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D70" t="n">
+        <v>74.1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D71" t="n">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D72" t="n">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D73" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D74" t="n">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D75" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D76" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D77" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D78" t="n">
+        <v>70.4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D79" t="n">
+        <v>81.4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D80" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D81" t="n">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D82" t="n">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D83" t="n">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D84" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D85" t="n">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D86" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D88" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D89" t="n">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D90" t="n">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D91" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D92" t="n">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D93" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B94" t="s">
         <v>97</v>
       </c>
-      <c r="C48" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C94" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D94" t="n">
         <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D95" t="n">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>
@@ -1460,6 +2121,9 @@
       <c r="B1" t="s">
         <v>98</v>
       </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1468,6 +2132,9 @@
       <c r="B2" t="n">
         <v>53.8</v>
       </c>
+      <c r="C2" t="n">
+        <v>60.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1476,6 +2143,9 @@
       <c r="B3" t="n">
         <v>52.2</v>
       </c>
+      <c r="C3" t="n">
+        <v>65.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1484,6 +2154,9 @@
       <c r="B4" t="n">
         <v>41.4</v>
       </c>
+      <c r="C4" t="n">
+        <v>56.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1492,6 +2165,9 @@
       <c r="B5" t="n">
         <v>58.5</v>
       </c>
+      <c r="C5" t="n">
+        <v>58.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1500,6 +2176,9 @@
       <c r="B6" t="n">
         <v>65</v>
       </c>
+      <c r="C6" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1508,6 +2187,9 @@
       <c r="B7" t="n">
         <v>81.5</v>
       </c>
+      <c r="C7" t="n">
+        <v>76.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1516,6 +2198,9 @@
       <c r="B8" t="n">
         <v>39.8</v>
       </c>
+      <c r="C8" t="n">
+        <v>52.6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1524,6 +2209,9 @@
       <c r="B9" t="n">
         <v>60.4</v>
       </c>
+      <c r="C9" t="n">
+        <v>65.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1532,6 +2220,9 @@
       <c r="B10" t="n">
         <v>43.8</v>
       </c>
+      <c r="C10" t="n">
+        <v>50.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1540,6 +2231,9 @@
       <c r="B11" t="n">
         <v>63.2</v>
       </c>
+      <c r="C11" t="n">
+        <v>74.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1548,6 +2242,9 @@
       <c r="B12" t="n">
         <v>48.6</v>
       </c>
+      <c r="C12" t="n">
+        <v>74.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1556,6 +2253,9 @@
       <c r="B13" t="n">
         <v>64.4</v>
       </c>
+      <c r="C13" t="n">
+        <v>70.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1564,6 +2264,9 @@
       <c r="B14" t="n">
         <v>92.6</v>
       </c>
+      <c r="C14" t="n">
+        <v>86.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1572,6 +2275,9 @@
       <c r="B15" t="n">
         <v>52.3</v>
       </c>
+      <c r="C15" t="n">
+        <v>56.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1580,6 +2286,9 @@
       <c r="B16" t="n">
         <v>92.3</v>
       </c>
+      <c r="C16" t="n">
+        <v>94.4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1588,6 +2297,9 @@
       <c r="B17" t="n">
         <v>72.8</v>
       </c>
+      <c r="C17" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1596,6 +2308,9 @@
       <c r="B18" t="n">
         <v>69.2</v>
       </c>
+      <c r="C18" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1604,6 +2319,9 @@
       <c r="B19" t="n">
         <v>46.2</v>
       </c>
+      <c r="C19" t="n">
+        <v>68.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1612,6 +2330,9 @@
       <c r="B20" t="n">
         <v>50.1</v>
       </c>
+      <c r="C20" t="n">
+        <v>69.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1620,6 +2341,9 @@
       <c r="B21" t="n">
         <v>49.5</v>
       </c>
+      <c r="C21" t="n">
+        <v>62.2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1628,6 +2352,9 @@
       <c r="B22" t="n">
         <v>47.3</v>
       </c>
+      <c r="C22" t="n">
+        <v>56.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1636,6 +2363,9 @@
       <c r="B23" t="n">
         <v>63.4</v>
       </c>
+      <c r="C23" t="n">
+        <v>76.8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1644,6 +2374,9 @@
       <c r="B24" t="n">
         <v>54.6</v>
       </c>
+      <c r="C24" t="n">
+        <v>64.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1652,6 +2385,9 @@
       <c r="B25" t="n">
         <v>38.7</v>
       </c>
+      <c r="C25" t="n">
+        <v>26.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1660,6 +2396,9 @@
       <c r="B26" t="n">
         <v>25.8</v>
       </c>
+      <c r="C26" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1668,6 +2407,9 @@
       <c r="B27" t="n">
         <v>82.8</v>
       </c>
+      <c r="C27" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1676,6 +2418,9 @@
       <c r="B28" t="n">
         <v>53.4</v>
       </c>
+      <c r="C28" t="n">
+        <v>74.3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1684,6 +2429,9 @@
       <c r="B29" t="n">
         <v>82.8</v>
       </c>
+      <c r="C29" t="n">
+        <v>90.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1692,6 +2440,9 @@
       <c r="B30" t="n">
         <v>85.5</v>
       </c>
+      <c r="C30" t="n">
+        <v>91.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1700,6 +2451,9 @@
       <c r="B31" t="n">
         <v>89.1</v>
       </c>
+      <c r="C31" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1708,6 +2462,9 @@
       <c r="B32" t="n">
         <v>69.5</v>
       </c>
+      <c r="C32" t="n">
+        <v>69.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1716,6 +2473,9 @@
       <c r="B33" t="n">
         <v>46.8</v>
       </c>
+      <c r="C33" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1724,6 +2484,9 @@
       <c r="B34" t="n">
         <v>40.3</v>
       </c>
+      <c r="C34" t="n">
+        <v>61.7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1732,6 +2495,9 @@
       <c r="B35" t="n">
         <v>76.6</v>
       </c>
+      <c r="C35" t="n">
+        <v>73.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1740,6 +2506,9 @@
       <c r="B36" t="n">
         <v>74.1</v>
       </c>
+      <c r="C36" t="n">
+        <v>83.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1748,6 +2517,9 @@
       <c r="B37" t="n">
         <v>85.3</v>
       </c>
+      <c r="C37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1756,6 +2528,9 @@
       <c r="B38" t="n">
         <v>88.1</v>
       </c>
+      <c r="C38" t="n">
+        <v>92.7</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1764,6 +2539,9 @@
       <c r="B39" t="n">
         <v>29</v>
       </c>
+      <c r="C39" t="n">
+        <v>30.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1772,6 +2550,9 @@
       <c r="B40" t="n">
         <v>70.4</v>
       </c>
+      <c r="C40" t="n">
+        <v>81.4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1780,6 +2561,9 @@
       <c r="B41" t="n">
         <v>62.5</v>
       </c>
+      <c r="C41" t="n">
+        <v>79.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1788,6 +2572,9 @@
       <c r="B42" t="n">
         <v>32.2</v>
       </c>
+      <c r="C42" t="n">
+        <v>46.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1796,6 +2583,9 @@
       <c r="B43" t="n">
         <v>41.8</v>
       </c>
+      <c r="C43" t="n">
+        <v>49.8</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1804,6 +2594,9 @@
       <c r="B44" t="n">
         <v>22.8</v>
       </c>
+      <c r="C44" t="n">
+        <v>30.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1812,6 +2605,9 @@
       <c r="B45" t="n">
         <v>59</v>
       </c>
+      <c r="C45" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1820,6 +2616,9 @@
       <c r="B46" t="n">
         <v>50.3</v>
       </c>
+      <c r="C46" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1828,6 +2627,9 @@
       <c r="B47" t="n">
         <v>21.7</v>
       </c>
+      <c r="C47" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1835,6 +2637,9 @@
       </c>
       <c r="B48" t="n">
         <v>27</v>
+      </c>
+      <c r="C48" t="n">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>
